--- a/ampieta-game-java-common/src/main/resources/excel/CharacterLevelConfigResource.xlsx
+++ b/ampieta-game-java-common/src/main/resources/excel/CharacterLevelConfigResource.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="11670"/>
+    <workbookView windowHeight="17775" tabRatio="550"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="42">
   <si>
     <t>CId</t>
   </si>
@@ -40,16 +53,25 @@
     <t>LevelAtk</t>
   </si>
   <si>
+    <t>LevelAtkUp</t>
+  </si>
+  <si>
+    <t>LevelNoAtkUp</t>
+  </si>
+  <si>
+    <t>LevelAtkUpNumPro</t>
+  </si>
+  <si>
     <t>LevelHpValue</t>
   </si>
   <si>
+    <t>LevelHpUpNum</t>
+  </si>
+  <si>
     <t>LevelDef</t>
   </si>
   <si>
-    <t>LevelAtkUp</t>
-  </si>
-  <si>
-    <t>LevelNoAtkUp</t>
+    <t>LevelDefUpNum</t>
   </si>
   <si>
     <t>LevelHpValueUp</t>
@@ -61,12 +83,15 @@
     <t>LevelAtkUpNum</t>
   </si>
   <si>
+    <t>inde下标</t>
+  </si>
+  <si>
+    <t>品质</t>
+  </si>
+  <si>
     <t>角色id</t>
   </si>
   <si>
-    <t>品质</t>
-  </si>
-  <si>
     <t>等级</t>
   </si>
   <si>
@@ -76,22 +101,31 @@
     <t>角色资源名</t>
   </si>
   <si>
-    <t>当前等级没有装备武器攻击属性</t>
-  </si>
-  <si>
-    <t>当前等级的攻击属性</t>
+    <t>当前等级没有装备武器攻击属性且未突破</t>
+  </si>
+  <si>
+    <t>当前等级的攻击属性且未突破</t>
+  </si>
+  <si>
+    <t>当前等级突破之后攻击属性</t>
+  </si>
+  <si>
+    <t>当前等级突破之后没有装备武器攻击属性</t>
+  </si>
+  <si>
+    <t>当前等级每个等级攻击力提升数值</t>
   </si>
   <si>
     <t>当前等级的生命值</t>
   </si>
   <si>
+    <t>当个突破限制等级每个等级生命值提升数值</t>
+  </si>
+  <si>
     <t>当前等级防御力</t>
   </si>
   <si>
-    <t>当前等级突破之后攻击属性</t>
-  </si>
-  <si>
-    <t>当前等级突破之后没有装备武器攻击属性</t>
+    <t>当个突破限制等级每个等级防御力提升数值</t>
   </si>
   <si>
     <t>当前等级突破之后的生命值</t>
@@ -115,20 +149,24 @@
     <t>旅行者</t>
   </si>
   <si>
-    <t>lvXingZhe</t>
+    <t>****</t>
+  </si>
+  <si>
+    <t>安柏</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,30 +176,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -178,14 +195,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -225,6 +234,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -275,13 +299,34 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -290,49 +335,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,13 +497,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,108 +533,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -475,7 +544,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -485,16 +554,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,6 +597,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,204 +670,234 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1054,246 +1168,1635 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O5"/>
+      <pane xSplit="5280" topLeftCell="F1" activePane="topRight"/>
+      <selection/>
+      <selection pane="topRight" activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9.125" customWidth="1"/>
+    <col min="2" max="2" width="8.375" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="9.375" customWidth="1"/>
+    <col min="5" max="5" width="14.875" customWidth="1"/>
+    <col min="6" max="6" width="13.75" customWidth="1"/>
+    <col min="7" max="7" width="37.875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="27.5" customWidth="1"/>
+    <col min="9" max="9" width="25.375" customWidth="1"/>
+    <col min="10" max="10" width="37.875" customWidth="1"/>
+    <col min="11" max="11" width="31.625" customWidth="1"/>
+    <col min="12" max="12" width="17.125" customWidth="1"/>
+    <col min="13" max="13" width="40" customWidth="1"/>
+    <col min="14" max="14" width="15" customWidth="1"/>
+    <col min="15" max="15" width="40" customWidth="1"/>
+    <col min="16" max="16" width="25.375" customWidth="1"/>
+    <col min="17" max="17" width="23.375" customWidth="1"/>
+    <col min="18" max="18" width="44.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:18">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
+    <row r="2" s="1" customFormat="1" spans="1:18">
+      <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
+      <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H2" t="s">
+      <c r="D2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I2" t="s">
+      <c r="E2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J2" t="s">
+      <c r="F2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K2" t="s">
+      <c r="G2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L2" t="s">
+      <c r="H2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M2" t="s">
+      <c r="I2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N2" t="s">
+      <c r="J2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O2" t="s">
+      <c r="K2" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="L2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="3" spans="1:15">
-      <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" t="s">
-        <v>31</v>
+    <row r="3" s="1" customFormat="1" spans="1:18">
+      <c r="A3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
-      <c r="A4">
+    <row r="4" s="2" customFormat="1" ht="12" customHeight="1" spans="1:18">
+      <c r="A4" s="2">
         <v>10001</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>5</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>10001</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="6">
+        <v>18</v>
+      </c>
+      <c r="H4" s="2">
+        <v>41</v>
+      </c>
+      <c r="I4" s="2">
+        <v>82</v>
+      </c>
+      <c r="J4" s="2">
+        <v>18</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>912</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>57</v>
+      </c>
+      <c r="O4" s="2">
+        <v>4.73</v>
+      </c>
+      <c r="P4" s="2">
+        <v>912</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>57</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="12" customHeight="1" spans="1:18">
+      <c r="A5" s="2">
+        <v>10002</v>
+      </c>
+      <c r="B5" s="2">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>10001</v>
+      </c>
+      <c r="D5" s="2">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4">
+      <c r="E5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="6">
         <v>46</v>
       </c>
-      <c r="H4">
+      <c r="H5" s="2">
+        <f>(K5*(D5-D4))+H4</f>
         <v>69</v>
       </c>
-      <c r="I4">
+      <c r="I5" s="2">
+        <v>82</v>
+      </c>
+      <c r="J5" s="2">
+        <v>59</v>
+      </c>
+      <c r="K5" s="8">
+        <f>(G5-J4)/(D5-D4)</f>
+        <v>1.47368421052632</v>
+      </c>
+      <c r="L5" s="2">
         <v>2342</v>
       </c>
-      <c r="J4">
+      <c r="M5" s="8">
+        <f>(L5-L4)/(D5-D4)</f>
+        <v>75.2631578947368</v>
+      </c>
+      <c r="N5" s="2">
         <v>147</v>
       </c>
-      <c r="K4">
+      <c r="O5" s="8">
+        <f>(N5-Q4)/(D5-D4)</f>
+        <v>4.73684210526316</v>
+      </c>
+      <c r="P5" s="2">
+        <v>3024</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>190</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="12" customHeight="1" spans="1:18">
+      <c r="A6" s="2">
+        <v>10003</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>10001</v>
+      </c>
+      <c r="D6" s="2">
+        <v>40</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="6">
+        <v>89</v>
+      </c>
+      <c r="H6" s="2">
+        <f>(K6*(D6-D5))+I5</f>
+        <v>112</v>
+      </c>
+      <c r="I6" s="2">
+        <v>121</v>
+      </c>
+      <c r="J6" s="2">
+        <v>98</v>
+      </c>
+      <c r="K6" s="8">
+        <f>(G6-J5)/(D6-D5)</f>
+        <v>1.5</v>
+      </c>
+      <c r="L6" s="2">
+        <v>4529</v>
+      </c>
+      <c r="M6" s="8">
+        <f>(L6-P5)/(D6-D5)</f>
+        <v>75.25</v>
+      </c>
+      <c r="N6" s="2">
+        <v>284</v>
+      </c>
+      <c r="O6" s="8">
+        <f t="shared" ref="O6:O11" si="0">(N6-Q5)/(D6-D5)</f>
+        <v>4.7</v>
+      </c>
+      <c r="P6" s="2">
+        <v>5013</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>315</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="12" customHeight="1" spans="1:18">
+      <c r="A7" s="2">
+        <v>10004</v>
+      </c>
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2">
+        <v>10001</v>
+      </c>
+      <c r="D7" s="2">
+        <v>50</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="6">
+        <v>113</v>
+      </c>
+      <c r="H7" s="2">
+        <f>(K7*(D7-D6))+I6</f>
+        <v>136</v>
+      </c>
+      <c r="I7" s="2">
+        <v>142</v>
+      </c>
+      <c r="J7" s="2">
+        <v>119</v>
+      </c>
+      <c r="K7" s="8">
+        <f>(G7-J6)/(D7-D6)</f>
+        <v>1.5</v>
+      </c>
+      <c r="L7" s="2">
+        <v>5766</v>
+      </c>
+      <c r="M7" s="8">
+        <f>(L7-P6)/(D7-D6)</f>
+        <v>75.3</v>
+      </c>
+      <c r="N7" s="2">
+        <v>362</v>
+      </c>
+      <c r="O7" s="8">
+        <f t="shared" si="0"/>
+        <v>4.7</v>
+      </c>
+      <c r="P7" s="2">
+        <v>6411</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>402</v>
+      </c>
+      <c r="R7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="12" customHeight="1" spans="1:18">
+      <c r="A8" s="2">
+        <v>10005</v>
+      </c>
+      <c r="B8" s="2">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>10001</v>
+      </c>
+      <c r="D8" s="2">
+        <v>60</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="6">
+        <v>140</v>
+      </c>
+      <c r="H8" s="2">
+        <f>(K8*(D8-D7))+I7</f>
+        <v>163</v>
+      </c>
+      <c r="I8" s="2">
+        <v>173</v>
+      </c>
+      <c r="J8" s="2">
+        <v>150</v>
+      </c>
+      <c r="K8" s="8">
+        <f t="shared" ref="K6:K11" si="1">(G8-J7)/(D8-D7)</f>
+        <v>2.1</v>
+      </c>
+      <c r="L8" s="2">
+        <v>7164</v>
+      </c>
+      <c r="M8" s="8">
+        <f>(L8-P7)/(D8-D7)</f>
+        <v>75.3</v>
+      </c>
+      <c r="N8" s="2">
+        <v>450</v>
+      </c>
+      <c r="O8" s="8">
+        <f t="shared" si="0"/>
+        <v>4.8</v>
+      </c>
+      <c r="P8" s="2">
+        <v>7648</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>480</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="12" customHeight="1" spans="1:18">
+      <c r="A9" s="2">
+        <v>10006</v>
+      </c>
+      <c r="B9" s="2">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2">
+        <v>10001</v>
+      </c>
+      <c r="D9" s="2">
+        <v>70</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="6">
+        <f>J8+(K8*(D9-D8))</f>
+        <v>171</v>
+      </c>
+      <c r="H9" s="2">
+        <v>187</v>
+      </c>
+      <c r="I9" s="2">
+        <v>197</v>
+      </c>
+      <c r="J9" s="2">
+        <v>174</v>
+      </c>
+      <c r="K9" s="8">
+        <f t="shared" ref="K9:K19" si="2">(G9-J8)/(D9-D8)</f>
+        <v>2.1</v>
+      </c>
+      <c r="L9" s="2">
+        <v>8401</v>
+      </c>
+      <c r="M9" s="8">
+        <f t="shared" ref="M9:M19" si="3">(L9-P8)/(D9-D8)</f>
+        <v>75.3</v>
+      </c>
+      <c r="N9" s="2">
+        <v>527</v>
+      </c>
+      <c r="O9" s="8">
+        <f t="shared" si="0"/>
+        <v>4.7</v>
+      </c>
+      <c r="P9" s="2">
+        <v>8885</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>558</v>
+      </c>
+      <c r="R9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="12" customHeight="1" spans="1:18">
+      <c r="A10" s="2">
+        <v>10007</v>
+      </c>
+      <c r="B10" s="2">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2">
+        <v>10001</v>
+      </c>
+      <c r="D10" s="2">
+        <v>80</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="6">
+        <v>188</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" ref="H10:H16" si="4">(K10*(D10-D9))+I9</f>
+        <v>211</v>
+      </c>
+      <c r="I10" s="2">
+        <v>221</v>
+      </c>
+      <c r="J10" s="2">
+        <v>198</v>
+      </c>
+      <c r="K10" s="8">
+        <f t="shared" si="1"/>
+        <v>1.4</v>
+      </c>
+      <c r="L10" s="2">
+        <v>9638</v>
+      </c>
+      <c r="M10" s="8">
+        <f t="shared" si="3"/>
+        <v>75.3</v>
+      </c>
+      <c r="N10" s="2">
+        <v>605</v>
+      </c>
+      <c r="O10" s="8">
+        <f t="shared" si="0"/>
+        <v>4.7</v>
+      </c>
+      <c r="P10" s="2">
+        <v>10122</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>635</v>
+      </c>
+      <c r="R10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="14" customHeight="1" spans="1:18">
+      <c r="A11" s="2">
+        <v>10008</v>
+      </c>
+      <c r="B11" s="2">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2">
+        <v>10002</v>
+      </c>
+      <c r="D11" s="2">
+        <v>90</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="6">
+        <v>213</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="4"/>
+        <v>236</v>
+      </c>
+      <c r="I11" s="2">
+        <v>236</v>
+      </c>
+      <c r="J11" s="2">
+        <v>213</v>
+      </c>
+      <c r="K11" s="8">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="L11" s="2">
+        <v>10875</v>
+      </c>
+      <c r="M11" s="8">
+        <f t="shared" si="3"/>
+        <v>75.3</v>
+      </c>
+      <c r="N11" s="2">
+        <v>683</v>
+      </c>
+      <c r="O11" s="8">
+        <f t="shared" si="0"/>
+        <v>4.8</v>
+      </c>
+      <c r="P11" s="2">
+        <v>10875</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>683</v>
+      </c>
+      <c r="R11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" s="3" customFormat="1" ht="12" customHeight="1" spans="1:18">
+      <c r="A12" s="3">
+        <v>10009</v>
+      </c>
+      <c r="B12" s="3">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3">
+        <v>10002</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="6">
+        <v>18</v>
+      </c>
+      <c r="H12" s="3">
+        <v>41</v>
+      </c>
+      <c r="I12" s="3">
         <v>82</v>
       </c>
-      <c r="L4">
+      <c r="J12" s="3">
+        <v>18</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>912</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
+        <v>57</v>
+      </c>
+      <c r="O12" s="3">
+        <v>4.73</v>
+      </c>
+      <c r="P12" s="3">
+        <v>912</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>57</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" s="3" customFormat="1" ht="12" customHeight="1" spans="1:18">
+      <c r="A13" s="3">
+        <v>10010</v>
+      </c>
+      <c r="B13" s="3">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3">
+        <v>10002</v>
+      </c>
+      <c r="D13" s="3">
+        <v>20</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="6">
+        <v>46</v>
+      </c>
+      <c r="H13" s="3">
+        <f>(K13*(D13-D12))+H12</f>
+        <v>69</v>
+      </c>
+      <c r="I13" s="3">
+        <v>82</v>
+      </c>
+      <c r="J13" s="3">
         <v>59</v>
       </c>
-      <c r="M4">
+      <c r="K13" s="9">
+        <f t="shared" si="2"/>
+        <v>1.47368421052632</v>
+      </c>
+      <c r="L13" s="3">
+        <v>2342</v>
+      </c>
+      <c r="M13" s="9">
+        <f>(L13-L12)/(D13-D12)</f>
+        <v>75.2631578947368</v>
+      </c>
+      <c r="N13" s="3">
+        <v>147</v>
+      </c>
+      <c r="O13" s="9">
+        <f t="shared" ref="O13:O19" si="5">(N13-Q12)/(D13-D12)</f>
+        <v>4.73684210526316</v>
+      </c>
+      <c r="P13" s="3">
         <v>3024</v>
       </c>
-      <c r="N4">
+      <c r="Q13" s="3">
         <v>190</v>
       </c>
-      <c r="O4">
+      <c r="R13" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
-      <c r="A5">
+    <row r="14" s="3" customFormat="1" ht="12" customHeight="1" spans="1:18">
+      <c r="A14" s="3">
+        <v>10011</v>
+      </c>
+      <c r="B14" s="3">
+        <v>5</v>
+      </c>
+      <c r="C14" s="3">
         <v>10002</v>
       </c>
-      <c r="B5">
+      <c r="D14" s="3">
+        <v>40</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="6">
+        <v>89</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="4"/>
+        <v>112</v>
+      </c>
+      <c r="I14" s="3">
+        <v>121</v>
+      </c>
+      <c r="J14" s="3">
+        <v>98</v>
+      </c>
+      <c r="K14" s="9">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="L14" s="3">
+        <v>4529</v>
+      </c>
+      <c r="M14" s="9">
+        <f t="shared" si="3"/>
+        <v>75.25</v>
+      </c>
+      <c r="N14" s="3">
+        <v>284</v>
+      </c>
+      <c r="O14" s="9">
+        <f t="shared" si="5"/>
+        <v>4.7</v>
+      </c>
+      <c r="P14" s="3">
+        <v>5013</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>315</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" s="3" customFormat="1" ht="12" customHeight="1" spans="1:18">
+      <c r="A15" s="3">
+        <v>10012</v>
+      </c>
+      <c r="B15" s="3">
         <v>5</v>
       </c>
-      <c r="C5">
-        <v>10001</v>
-      </c>
-      <c r="D5">
+      <c r="C15" s="3">
+        <v>10002</v>
+      </c>
+      <c r="D15" s="3">
+        <v>50</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5">
-        <v>89</v>
-      </c>
-      <c r="H5">
-        <v>112</v>
-      </c>
-      <c r="I5">
-        <v>4529</v>
-      </c>
-      <c r="J5">
-        <v>284</v>
-      </c>
-      <c r="K5">
-        <v>121</v>
-      </c>
-      <c r="L5">
-        <v>98</v>
-      </c>
-      <c r="M5">
-        <v>5013</v>
-      </c>
-      <c r="N5">
-        <v>315</v>
-      </c>
-      <c r="O5">
+      <c r="G15" s="6">
+        <v>113</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="4"/>
+        <v>136</v>
+      </c>
+      <c r="I15" s="3">
+        <v>142</v>
+      </c>
+      <c r="J15" s="3">
+        <v>119</v>
+      </c>
+      <c r="K15" s="9">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="L15" s="3">
+        <v>5766</v>
+      </c>
+      <c r="M15" s="9">
+        <f t="shared" si="3"/>
+        <v>75.3</v>
+      </c>
+      <c r="N15" s="3">
+        <v>362</v>
+      </c>
+      <c r="O15" s="9">
+        <f t="shared" si="5"/>
+        <v>4.7</v>
+      </c>
+      <c r="P15" s="3">
+        <v>6411</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>402</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" s="3" customFormat="1" ht="12" customHeight="1" spans="1:18">
+      <c r="A16" s="3">
+        <v>10013</v>
+      </c>
+      <c r="B16" s="3">
+        <v>5</v>
+      </c>
+      <c r="C16" s="3">
+        <v>10002</v>
+      </c>
+      <c r="D16" s="3">
+        <v>60</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="6">
+        <v>140</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="4"/>
+        <v>163</v>
+      </c>
+      <c r="I16" s="3">
+        <v>173</v>
+      </c>
+      <c r="J16" s="3">
+        <v>150</v>
+      </c>
+      <c r="K16" s="9">
+        <f t="shared" si="2"/>
+        <v>2.1</v>
+      </c>
+      <c r="L16" s="3">
+        <v>7164</v>
+      </c>
+      <c r="M16" s="9">
+        <f t="shared" si="3"/>
+        <v>75.3</v>
+      </c>
+      <c r="N16" s="3">
+        <v>450</v>
+      </c>
+      <c r="O16" s="9">
+        <f t="shared" si="5"/>
+        <v>4.8</v>
+      </c>
+      <c r="P16" s="3">
+        <v>7648</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>480</v>
+      </c>
+      <c r="R16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" s="3" customFormat="1" ht="12" customHeight="1" spans="1:18">
+      <c r="A17" s="3">
+        <v>10014</v>
+      </c>
+      <c r="B17" s="3">
+        <v>5</v>
+      </c>
+      <c r="C17" s="3">
+        <v>10002</v>
+      </c>
+      <c r="D17" s="3">
+        <v>70</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="6">
+        <f>J16+(K16*(D17-D16))</f>
+        <v>171</v>
+      </c>
+      <c r="H17" s="3">
+        <v>187</v>
+      </c>
+      <c r="I17" s="3">
+        <v>197</v>
+      </c>
+      <c r="J17" s="3">
+        <v>174</v>
+      </c>
+      <c r="K17" s="9">
+        <f t="shared" ref="K17:K27" si="6">(G17-J16)/(D17-D16)</f>
+        <v>2.1</v>
+      </c>
+      <c r="L17" s="3">
+        <v>8401</v>
+      </c>
+      <c r="M17" s="9">
+        <f t="shared" si="3"/>
+        <v>75.3</v>
+      </c>
+      <c r="N17" s="3">
+        <v>527</v>
+      </c>
+      <c r="O17" s="9">
+        <f t="shared" si="5"/>
+        <v>4.7</v>
+      </c>
+      <c r="P17" s="3">
+        <v>8885</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>558</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" s="3" customFormat="1" ht="12" customHeight="1" spans="1:18">
+      <c r="A18" s="3">
+        <v>10015</v>
+      </c>
+      <c r="B18" s="3">
+        <v>5</v>
+      </c>
+      <c r="C18" s="3">
+        <v>10002</v>
+      </c>
+      <c r="D18" s="3">
+        <v>80</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="6">
+        <v>188</v>
+      </c>
+      <c r="H18" s="3">
+        <f t="shared" ref="H18:H24" si="7">(K18*(D18-D17))+I17</f>
+        <v>211</v>
+      </c>
+      <c r="I18" s="3">
+        <v>221</v>
+      </c>
+      <c r="J18" s="3">
+        <v>198</v>
+      </c>
+      <c r="K18" s="9">
+        <f t="shared" si="2"/>
+        <v>1.4</v>
+      </c>
+      <c r="L18" s="3">
+        <v>9638</v>
+      </c>
+      <c r="M18" s="9">
+        <f t="shared" si="3"/>
+        <v>75.3</v>
+      </c>
+      <c r="N18" s="3">
+        <v>605</v>
+      </c>
+      <c r="O18" s="9">
+        <f t="shared" si="5"/>
+        <v>4.7</v>
+      </c>
+      <c r="P18" s="3">
+        <v>10122</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>635</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" s="3" customFormat="1" ht="12" customHeight="1" spans="1:18">
+      <c r="A19" s="3">
+        <v>10016</v>
+      </c>
+      <c r="B19" s="3">
+        <v>5</v>
+      </c>
+      <c r="C19" s="3">
+        <v>10002</v>
+      </c>
+      <c r="D19" s="3">
+        <v>90</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="6">
+        <v>213</v>
+      </c>
+      <c r="H19" s="3">
+        <f t="shared" si="7"/>
+        <v>236</v>
+      </c>
+      <c r="I19" s="3">
+        <v>236</v>
+      </c>
+      <c r="J19" s="3">
+        <v>213</v>
+      </c>
+      <c r="K19" s="9">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="L19" s="3">
+        <v>10875</v>
+      </c>
+      <c r="M19" s="9">
+        <f t="shared" si="3"/>
+        <v>75.3</v>
+      </c>
+      <c r="N19" s="3">
+        <v>683</v>
+      </c>
+      <c r="O19" s="9">
+        <f t="shared" si="5"/>
+        <v>4.8</v>
+      </c>
+      <c r="P19" s="3">
+        <v>10875</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>683</v>
+      </c>
+      <c r="R19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" s="4" customFormat="1" ht="12" customHeight="1" spans="1:18">
+      <c r="A20" s="4">
+        <v>10017</v>
+      </c>
+      <c r="B20" s="4">
+        <v>4</v>
+      </c>
+      <c r="C20" s="4">
+        <f>$C$19+1</f>
+        <v>10003</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="7">
+        <v>19</v>
+      </c>
+      <c r="H20" s="4">
+        <v>42</v>
+      </c>
+      <c r="I20" s="4">
+        <v>42</v>
+      </c>
+      <c r="J20" s="4">
+        <v>19</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0</v>
+      </c>
+      <c r="L20" s="4">
+        <v>793</v>
+      </c>
+      <c r="M20" s="4">
+        <v>0</v>
+      </c>
+      <c r="N20" s="4">
+        <v>50</v>
+      </c>
+      <c r="O20" s="4">
+        <v>4.73</v>
+      </c>
+      <c r="P20" s="4">
+        <v>793</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>50</v>
+      </c>
+      <c r="R20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" s="4" customFormat="1" ht="12" customHeight="1" spans="1:18">
+      <c r="A21" s="4">
+        <v>10018</v>
+      </c>
+      <c r="B21" s="4">
+        <v>4</v>
+      </c>
+      <c r="C21" s="4">
+        <f t="shared" ref="C21:C27" si="8">$C$19+1</f>
+        <v>10003</v>
+      </c>
+      <c r="D21" s="4">
+        <v>20</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" s="7">
+        <v>48</v>
+      </c>
+      <c r="H21" s="4">
+        <f>(K21*(D21-D20))+H20</f>
+        <v>71</v>
+      </c>
+      <c r="I21" s="4">
+        <v>85</v>
+      </c>
+      <c r="J21" s="4">
+        <v>62</v>
+      </c>
+      <c r="K21" s="10">
+        <f>(G21-J20)/(D21-D20)</f>
+        <v>1.52631578947368</v>
+      </c>
+      <c r="L21" s="4">
+        <v>2038</v>
+      </c>
+      <c r="M21" s="10">
+        <f>(L21-L20)/(D21-D20)</f>
+        <v>65.5263157894737</v>
+      </c>
+      <c r="N21" s="4">
+        <v>129</v>
+      </c>
+      <c r="O21" s="10">
+        <f t="shared" ref="O21:O27" si="9">(N21-Q20)/(D21-D20)</f>
+        <v>4.15789473684211</v>
+      </c>
+      <c r="P21" s="4">
+        <v>2630</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>167</v>
+      </c>
+      <c r="R21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" s="4" customFormat="1" ht="12" customHeight="1" spans="1:18">
+      <c r="A22" s="4">
+        <v>10019</v>
+      </c>
+      <c r="B22" s="4">
+        <v>4</v>
+      </c>
+      <c r="C22" s="4">
+        <f t="shared" si="8"/>
+        <v>10003</v>
+      </c>
+      <c r="D22" s="4">
+        <v>40</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="7">
+        <v>93</v>
+      </c>
+      <c r="H22" s="4">
+        <f t="shared" si="7"/>
+        <v>116</v>
+      </c>
+      <c r="I22" s="4">
+        <v>126</v>
+      </c>
+      <c r="J22" s="4">
+        <v>103</v>
+      </c>
+      <c r="K22" s="10">
+        <f t="shared" si="6"/>
+        <v>1.55</v>
+      </c>
+      <c r="L22" s="4">
+        <v>3940</v>
+      </c>
+      <c r="M22" s="10">
+        <f t="shared" ref="M22:M27" si="10">(L22-P21)/(D22-D21)</f>
+        <v>65.5</v>
+      </c>
+      <c r="N22" s="4">
+        <v>250</v>
+      </c>
+      <c r="O22" s="10">
+        <f t="shared" si="9"/>
+        <v>4.15</v>
+      </c>
+      <c r="P22" s="4">
+        <v>4361</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>277</v>
+      </c>
+      <c r="R22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" s="4" customFormat="1" ht="12" customHeight="1" spans="1:18">
+      <c r="A23" s="4">
+        <v>10020</v>
+      </c>
+      <c r="B23" s="4">
+        <v>4</v>
+      </c>
+      <c r="C23" s="4">
+        <f t="shared" si="8"/>
+        <v>10003</v>
+      </c>
+      <c r="D23" s="4">
+        <v>50</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="7">
+        <v>118</v>
+      </c>
+      <c r="H23" s="4">
+        <f t="shared" si="7"/>
+        <v>141</v>
+      </c>
+      <c r="I23" s="4">
+        <v>155</v>
+      </c>
+      <c r="J23" s="4">
+        <v>132</v>
+      </c>
+      <c r="K23" s="10">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="L23" s="4">
+        <v>5016</v>
+      </c>
+      <c r="M23" s="10">
+        <f t="shared" si="10"/>
+        <v>65.5</v>
+      </c>
+      <c r="N23" s="4">
+        <v>318</v>
+      </c>
+      <c r="O23" s="10">
+        <f t="shared" si="9"/>
+        <v>4.1</v>
+      </c>
+      <c r="P23" s="4">
+        <v>5578</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>354</v>
+      </c>
+      <c r="R23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" s="4" customFormat="1" ht="12" customHeight="1" spans="1:18">
+      <c r="A24" s="4">
+        <v>10021</v>
+      </c>
+      <c r="B24" s="4">
+        <v>4</v>
+      </c>
+      <c r="C24" s="4">
+        <f t="shared" si="8"/>
+        <v>10003</v>
+      </c>
+      <c r="D24" s="4">
+        <v>60</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" s="7">
+        <v>147</v>
+      </c>
+      <c r="H24" s="4">
+        <f t="shared" si="7"/>
+        <v>170</v>
+      </c>
+      <c r="I24" s="4">
+        <v>180</v>
+      </c>
+      <c r="J24" s="4">
+        <v>157</v>
+      </c>
+      <c r="K24" s="10">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="L24" s="4">
+        <v>6233</v>
+      </c>
+      <c r="M24" s="10">
+        <f t="shared" si="10"/>
+        <v>65.5</v>
+      </c>
+      <c r="N24" s="4">
+        <v>396</v>
+      </c>
+      <c r="O24" s="10">
+        <f t="shared" si="9"/>
+        <v>4.2</v>
+      </c>
+      <c r="P24" s="4">
+        <v>6654</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>422</v>
+      </c>
+      <c r="R24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" s="4" customFormat="1" ht="12" customHeight="1" spans="1:18">
+      <c r="A25" s="4">
+        <v>10022</v>
+      </c>
+      <c r="B25" s="4">
+        <v>4</v>
+      </c>
+      <c r="C25" s="4">
+        <f t="shared" si="8"/>
+        <v>10003</v>
+      </c>
+      <c r="D25" s="4">
+        <v>70</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" s="7">
+        <v>173</v>
+      </c>
+      <c r="H25" s="4">
+        <v>196</v>
+      </c>
+      <c r="I25" s="4">
+        <v>205</v>
+      </c>
+      <c r="J25" s="4">
+        <v>182</v>
+      </c>
+      <c r="K25" s="10">
+        <f t="shared" si="6"/>
+        <v>1.6</v>
+      </c>
+      <c r="L25" s="4">
+        <v>7309</v>
+      </c>
+      <c r="M25" s="10">
+        <f t="shared" si="10"/>
+        <v>65.5</v>
+      </c>
+      <c r="N25" s="4">
+        <v>464</v>
+      </c>
+      <c r="O25" s="10">
+        <f t="shared" si="9"/>
+        <v>4.2</v>
+      </c>
+      <c r="P25" s="4">
+        <v>7730</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>491</v>
+      </c>
+      <c r="R25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" s="4" customFormat="1" ht="12" customHeight="1" spans="1:18">
+      <c r="A26" s="4">
+        <v>10023</v>
+      </c>
+      <c r="B26" s="4">
+        <v>4</v>
+      </c>
+      <c r="C26" s="4">
+        <f t="shared" si="8"/>
+        <v>10003</v>
+      </c>
+      <c r="D26" s="4">
+        <v>80</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26" s="7">
+        <v>198</v>
+      </c>
+      <c r="H26" s="4">
+        <f>(K26*(D26-D25))+I25</f>
+        <v>221</v>
+      </c>
+      <c r="I26" s="4">
+        <v>231</v>
+      </c>
+      <c r="J26" s="4">
+        <v>208</v>
+      </c>
+      <c r="K26" s="10">
+        <f t="shared" si="6"/>
+        <v>1.6</v>
+      </c>
+      <c r="L26" s="4">
+        <v>8385</v>
+      </c>
+      <c r="M26" s="10">
+        <f t="shared" si="10"/>
+        <v>65.5</v>
+      </c>
+      <c r="N26" s="4">
+        <v>532</v>
+      </c>
+      <c r="O26" s="10">
+        <f t="shared" si="9"/>
+        <v>4.1</v>
+      </c>
+      <c r="P26" s="4">
+        <v>8806</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>559</v>
+      </c>
+      <c r="R26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" s="4" customFormat="1" ht="12" customHeight="1" spans="1:18">
+      <c r="A27" s="4">
+        <v>10024</v>
+      </c>
+      <c r="B27" s="4">
+        <v>4</v>
+      </c>
+      <c r="C27" s="4">
+        <f t="shared" si="8"/>
+        <v>10003</v>
+      </c>
+      <c r="D27" s="4">
+        <v>90</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" s="7">
+        <v>223</v>
+      </c>
+      <c r="H27" s="4">
+        <v>246</v>
+      </c>
+      <c r="I27" s="4">
+        <v>246</v>
+      </c>
+      <c r="J27" s="4">
+        <v>223</v>
+      </c>
+      <c r="K27" s="10">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="L27" s="4">
+        <v>9461</v>
+      </c>
+      <c r="M27" s="10">
+        <f t="shared" si="10"/>
+        <v>65.5</v>
+      </c>
+      <c r="N27" s="4">
+        <v>601</v>
+      </c>
+      <c r="O27" s="10">
+        <f t="shared" si="9"/>
+        <v>4.2</v>
+      </c>
+      <c r="P27" s="4">
+        <v>9461</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>601</v>
+      </c>
+      <c r="R27" s="4">
         <v>0</v>
       </c>
     </row>
